--- a/biology/Médecine/Méat_acoustique_externe_(partie_osseuse)/Méat_acoustique_externe_(partie_osseuse).xlsx
+++ b/biology/Médecine/Méat_acoustique_externe_(partie_osseuse)/Méat_acoustique_externe_(partie_osseuse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9at_acoustique_externe_(partie_osseuse)</t>
+          <t>Méat_acoustique_externe_(partie_osseuse)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méat acoustique externe (ou conduit auditif externe) est le canal osseux situé dans la partie tympanique de l'os temporal entre le tympan et le pore acoustique externe.
 Le tympan le sépare de l'oreille moyenne et le pore acoustique de l'auricule.
